--- a/uncertainty.xlsx
+++ b/uncertainty.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
         <v>3267666</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">SQRT(B3)</f>
+        <f t="shared" ref="C3:C5" si="0">SQRT(B3)</f>
         <v>1807.6686643298324</v>
       </c>
       <c r="H3" t="s">
@@ -547,11 +547,11 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>569.01700000000005</v>
+        <v>592.56299999999999</v>
       </c>
       <c r="C8">
         <f>B8*0.1</f>
-        <v>56.901700000000005</v>
+        <v>59.256300000000003</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -590,29 +590,29 @@
       </c>
       <c r="C12">
         <f>SQRT((C10/B8)^2+(C8*B10/(B8)^2)^2)</f>
-        <v>194.11601016936112</v>
+        <v>186.40264369955497</v>
       </c>
       <c r="E12">
         <f>(C10/B8)^2</f>
-        <v>15.562964869894753</v>
+        <v>14.35072226951954</v>
       </c>
       <c r="F12">
         <f>SQRT(E12)</f>
-        <v>3.9449923789400092</v>
+        <v>3.7882347167935015</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>C12-B12*0.1</f>
-        <v>4.0090902694686292E-2</v>
+        <v>-7.6732755671114603</v>
       </c>
       <c r="E13">
         <f>(C8*B10/(B8)^2)^2</f>
-        <v>37665.462439201612</v>
+        <v>34731.594855913718</v>
       </c>
       <c r="F13">
         <f>SQRT(E13)</f>
-        <v>194.0759192666664</v>
+        <v>186.36414584332931</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">

--- a/uncertainty.xlsx
+++ b/uncertainty.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>N_acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,13 +81,51 @@
   <si>
     <t>sigma_eff</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data-BG</t>
+  </si>
+  <si>
+    <t>sigma_th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncert. lum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncert. stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DY-gamma*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +138,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -125,8 +172,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,8 +588,8 @@
         <v>3.3627919853832541E-4</v>
       </c>
       <c r="F7">
-        <f>(C5/B7)^2+(C7*B5/(B7)^2)^2</f>
-        <v>5038982.1548580658</v>
+        <f>(C16/B7)^2+(C7*B16/(B7)^2)^2</f>
+        <v>4970892.5426003085</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -558,13 +608,13 @@
       </c>
       <c r="F8">
         <f>SQRT(F7)</f>
-        <v>2244.7677284873075</v>
+        <v>2229.5498520105598</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F9">
-        <f>F8/569.017</f>
-        <v>3.9449923789400092</v>
+      <c r="F9" s="1">
+        <f>F8/B8</f>
+        <v>3.7625532677716289</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -572,12 +622,12 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>B5/B7</f>
-        <v>1104324.9735336073</v>
+        <f>B16/B7</f>
+        <v>1092716.358161913</v>
       </c>
       <c r="C10">
         <f>$F$8</f>
-        <v>2244.7677284873075</v>
+        <v>2229.5498520105598</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -585,40 +635,157 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>B10/569.017</f>
-        <v>1940.7591926666641</v>
+        <f>B10/B8</f>
+        <v>1844.0509416921291</v>
       </c>
       <c r="C12">
         <f>SQRT((C10/B8)^2+(C8*B10/(B8)^2)^2)</f>
-        <v>186.40264369955497</v>
+        <v>184.44347525095353</v>
       </c>
       <c r="E12">
         <f>(C10/B8)^2</f>
-        <v>14.35072226951954</v>
+        <v>14.156807092818964</v>
       </c>
       <c r="F12">
         <f>SQRT(E12)</f>
-        <v>3.7882347167935015</v>
+        <v>3.7625532677716289</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>C12-B12*0.1</f>
-        <v>-7.6732755671114603</v>
+        <v>3.8381081740595846E-2</v>
       </c>
       <c r="E13">
         <f>(C8*B10/(B8)^2)^2</f>
-        <v>34731.594855913718</v>
+        <v>34005.238755556289</v>
       </c>
       <c r="F13">
         <f>SQRT(E13)</f>
-        <v>186.36414584332931</v>
+        <v>184.40509416921293</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>B12*0.1</f>
-        <v>194.07591926666643</v>
+        <v>184.40509416921293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>336569.46025</v>
+      </c>
+      <c r="C16">
+        <f>SQRT(B16)</f>
+        <v>580.14606802942308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>350665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>346978.82500000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>336569.46025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>592.56299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="C4">
+        <f>B4*B5</f>
+        <v>0.30802199999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.30801173400218185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f>(B2*0.97)/(B3*D4)</f>
+        <v>1844.0509416921288</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <f>0.1*B6</f>
+        <v>184.4050941692129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>3.7882347167935015</v>
       </c>
     </row>
   </sheetData>
